--- a/database/AN_pp/expdata/3001.xlsx
+++ b/database/AN_pp/expdata/3001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54297104-2C7D-9148-8137-D4C42A0F917E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9B0CAF-7550-0540-89FF-7D224886CC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20620" windowHeight="11140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30000" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,10 +82,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000_ "/>
-    <numFmt numFmtId="165" formatCode="0.00000_ "/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -212,25 +208,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -595,302 +588,302 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>0.1621476</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <v>6.4046600000000004E-3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>5.56479E-3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="8">
         <v>5.7639999999999997E-5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="7">
         <v>3.2530199999999998</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="9">
         <v>500</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="10">
         <v>0.152</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="11">
         <v>0.17199999999999999</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="12">
         <v>0.18201320000000001</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="12">
         <v>1.13527E-2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="12">
         <v>4.7884800000000003E-3</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="13">
         <v>1.02174E-4</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="12">
         <v>3.4193500000000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="9">
         <v>500</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <v>0.17199999999999999</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="14">
         <v>0.192</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="12">
         <v>0.2019532</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="12">
         <v>2.0513400000000001E-2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="12">
         <v>5.3574399999999998E-3</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="13">
         <v>4.1026899999999998E-5</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="12">
         <v>3.53451</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
         <v>500</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <v>0.192</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="14">
         <v>0.21199999999999999</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="12">
         <v>0.22175400000000001</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="12">
         <v>1.2578199999999999E-2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="12">
         <v>4.6609499999999996E-3</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="13">
         <v>5.0312699999999997E-5</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="12">
         <v>3.6356899999999999</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>500</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>0.21199999999999999</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="14">
         <v>0.23200000000000001</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="12">
         <v>0.2451692</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="12">
         <v>2.2016500000000001E-2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="12">
         <v>4.9289499999999997E-3</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="13">
         <v>2.6419799999999999E-4</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="12">
         <v>3.77359</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <v>500</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <v>0.23200000000000001</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="14">
         <v>0.26</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="12">
         <v>0.27774120000000002</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="12">
         <v>3.8631899999999997E-2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="12">
         <v>6.0134999999999997E-3</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="13">
         <v>5.0221399999999996E-4</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="12">
         <v>3.9739499999999999</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>500</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>0.26</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="14">
         <v>0.3</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="15">
         <v>0.32392320000000002</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="15">
         <v>3.2161299999999997E-2</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>8.9675899999999992E-3</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="16">
         <v>2.2512899999999999E-4</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="15">
         <v>4.4097900000000001</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <v>500</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="17">
         <v>0.3</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="18">
         <v>0.36</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="3"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/database/AN_pp/expdata/3001.xlsx
+++ b/database/AN_pp/expdata/3001.xlsx
@@ -5,20 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9B0CAF-7550-0540-89FF-7D224886CC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65A1E4B8-8F50-7249-B17B-63A588E79279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30000" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6880" yWindow="8180" windowWidth="27640" windowHeight="16940" xr2:uid="{ADDF3BEF-99B1-9C40-A3BF-802959ED4843}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -84,36 +93,30 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -121,109 +124,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,16 +446,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FE475F-F3FD-124D-BAAA-870755173727}">
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,316 +486,304 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2">
         <v>0.1621476</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>6.4046600000000004E-3</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>5.56479E-3</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2">
         <v>5.7639999999999997E-5</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2">
         <v>3.2530199999999998</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2">
         <v>500</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2">
         <v>0.152</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2">
         <v>0.17199999999999999</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="A3">
         <v>0.18201320000000001</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3">
         <v>1.13527E-2</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3">
         <v>4.7884800000000003E-3</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3">
         <v>1.02174E-4</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3">
         <v>3.4193500000000001</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3">
         <v>500</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3">
         <v>0.192</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="A4">
         <v>0.2019532</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>2.0513400000000001E-2</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4">
         <v>5.3574399999999998E-3</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4">
         <v>4.1026899999999998E-5</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4">
         <v>3.53451</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4">
         <v>500</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4">
         <v>0.192</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4">
         <v>0.21199999999999999</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="A5">
         <v>0.22175400000000001</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>1.2578199999999999E-2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5">
         <v>4.6609499999999996E-3</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5">
         <v>5.0312699999999997E-5</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5">
         <v>3.6356899999999999</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5">
         <v>500</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5">
         <v>0.21199999999999999</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5">
         <v>0.23200000000000001</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6">
         <v>0.2451692</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>2.2016500000000001E-2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6">
         <v>4.9289499999999997E-3</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6">
         <v>2.6419799999999999E-4</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6">
         <v>3.77359</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6">
         <v>500</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6">
         <v>0.23200000000000001</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6">
         <v>0.26</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7">
         <v>0.27774120000000002</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>3.8631899999999997E-2</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7">
         <v>6.0134999999999997E-3</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7">
         <v>5.0221399999999996E-4</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7">
         <v>3.9739499999999999</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7">
         <v>500</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7">
         <v>0.26</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7">
         <v>0.3</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>0.32392320000000002</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8">
         <v>3.2161299999999997E-2</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8">
         <v>8.9675899999999992E-3</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8">
         <v>2.2512899999999999E-4</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8">
         <v>4.4097900000000001</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8">
         <v>500</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8">
         <v>0.3</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8">
         <v>0.36</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>